--- a/Engagement/BCIO-engagement-hierarchy.xlsx
+++ b/Engagement/BCIO-engagement-hierarchy.xlsx
@@ -443,44 +443,44 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Informal definition</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Cross reference</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Comment</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IAO:0000027</t>
+          <t>MF:0000020</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/IAO_0000027</t>
+          <t>http://purl.obolibrary.org/obo/MF_0000020</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -491,13 +491,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:013015</t>
+          <t>MF:0000008</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>number of behavioural BCI engagements</t>
+          <t>cognitive process</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -505,47 +505,41 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>A data item that is about the number of times behavioural BCI engagement occurs.</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Number of: sessions attended, worksheets initiated, log ins, online posts, online responses. The amount of content viewed or the number of non-consecutive days an intervention was engaged with (e.g. the app was used on 20 days out of a possible 60 days).</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t>A mental process that creates, modifies or has as participant some cognitive representation.</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Understanding, or thinking about something or forming or changing beliefs about something. </t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Describes the total number of engagement events in a BCI (e.g., participants received 10 sessions face-to-face or by phone), or the number of engagement events related to part of a BCI (e.g., 10% of people participated in 6 face-to-face sessions and 4 phone sessions). 
-Depending on how “number of BCI engagements” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants joined at least 1 session), (2) maximum (e.g., only 10% of participants attended 5 sessions), (3) mean (e.g., participants joined 4 sessions on average) or (4) median (e.g., the median number of sessions participants attended was 4). </t>
+          <t>Engagement</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:050521</t>
+          <t>BCIO:006110</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>BCI engagement period statistic</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>comprehension</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>A data item that is about a collection of BCI engagement periods.</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
+          <t>A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation.</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -554,29 +548,29 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:050533</t>
+          <t>MF:0000018</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>mean BCI engagement period</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>attending</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>A BCI engagement period statistic that is the average value calculated from a collection of BCI engagement periods.</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>The mean period of intervention  that participants engaged with.</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
+          <t>A mental process whereby relevant aspects of one's mental experience are focused on specific targets.</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Focusing on particular internal or external stimuli.</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -585,29 +579,24 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:050538</t>
+          <t>MF:0000006</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>median BCI engagement period</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>judging</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>A BCI engagement period statistic that is the central value of a collection of BCI engagement periods.</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>The median period of intervention that participants engaged with.</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
+          <t>A mental process during which information is evaluated, the outcome of which is a belief or opinion.</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -616,60 +605,40 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:050543</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
+          <t>IAO:0000027</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/IAO_0000027</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>minimum BCI engagement period</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>A BCI engagement period statistic that is the lowest value from a collection of BCI engagement periods.</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>The minimum period of intervention that participants engaged with.</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:050528</t>
+          <t>BCIO:050522</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>maximum BCI engagement period</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>aggregate behavioural BCI engagement duration statistic</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>A BCI engagement period statistic that is the highest value from a collection of BCI engagement periods.</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>The maximum period of intervention that participants engaged with.</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
+          <t>A data item that is about a collection of aggregate behavioural BCI engagement durations.</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -678,24 +647,29 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:050524</t>
+          <t>BCIO:050529</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>behavioural BCI engagement frequency statistic</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>maximum aggregate behavioural BCI engagement duration</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>A data item that is about a collection of behavioural BCI engagement frequencies.</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
+          <t>An aggregate behavioural BCI engagement duration statistic that is the highest value from a collection of aggregate behavioural BCI engagement durations.</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>The maximum duration of all intervention sessions attended by participants.</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -704,29 +678,29 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:050546</t>
+          <t>BCIO:050534</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>minimum behavioural BCI engagement frequency</t>
+          <t>mean aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement frequency statistic that is the lowest value from a collection of behavioural BCI engagement frequencies.</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>The minimum frequency of intervention sessions attended by participants.</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
+          <t>An aggregate behavioural BCI engagement duration statistic that is the average value calculated from a collection of aggregate behavioural BCI engagement durations.</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>The mean duration of all intervention sessions attended by participants.</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -735,29 +709,29 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:050541</t>
+          <t>BCIO:050539</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>median behavioural BCI engagement frequency</t>
+          <t>median aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement frequency statistic that is the central value of a collection of behavioural BCI engagement frequencies.</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>The median frequency of intervention sessions attended by participants.</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
+          <t>An aggregate behavioural BCI engagement duration statistic that is the central value of a collection of aggregate behavioural BCI engagement durations.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>The median duration of all intervention sessions attended by participants.</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -766,29 +740,29 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:050531</t>
+          <t>BCIO:050544</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>maximum behavioural BCI engagement frequency</t>
+          <t>minimum aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement frequency statistic that is the highest value from a collection of behavioural BCI engagement frequencies.</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>The maximum frequency of intervention sessions attended by participants.</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
+          <t>An aggregate behavioural BCI engagement duration statistic that is the lowest value from a collection of aggregate behavioural BCI engagement durations.</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>The minimum duration of all intervention sessions attended by participants.</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -797,29 +771,24 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:050536</t>
+          <t>BCIO:050525</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>mean behavioural BCI engagement frequency</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>behavioural BCI engagement number statistic</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement frequency statistic that is the average value calculated from a collection of behavioural BCI engagement frequencies.</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>The mean frequency of intervention sessions attended by participants.</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
+          <t>A data item that is about a collection of behavioural BCI engagement contact event numbers.</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -828,62 +797,60 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:013020</t>
+          <t>BCIO:050532</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>behavioural BCI engagement frequency</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>maximum behavioural BCI engagement number</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>A data item that is about the number of times behavioural BCI engagement occurs within a unit of time.</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hourly, daily, weekly or monthly encounters. </t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t>A behavioural BCI engagement number statistic that is the highest value from a collection of behavioural BCI engagement numbers.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>The maximum number of intervention sessions attended by participants.</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Describes the frequency of BCI engagement in a BCI (e.g., participants had weekly contact), or the frequency of engagement in part of a BCI (e.g., participants received face-to-face contact once a month). 
-The class “BCI engagement frequency” can be used to capture the frequency of different types of engagement, such as the frequency of engaging with social media or printed material. 
-Depending on how “BCI engagement frequency” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants joined at least 1 session every week), (2) maximum (e.g., only 10% of participants attended 5 sessions every week), (3) mean (e.g., participants joined 4 sessions per week on average) or (4) median (e.g., the median number of sessions participants attended was 4 per week). </t>
+          <t>Engagement</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:050522</t>
+          <t>BCIO:050542</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>aggregate behavioural BCI engagement duration statistic</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>median behavioural BCI engagement number</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>A data item that is about a collection of aggregate behavioural BCI engagement durations.</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
+          <t>A behavioural BCI engagement number statistic that is the central value of a collection of behavioural BCI engagement numbers.</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>The median number of intervention sessions attended by participants.</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -892,29 +859,29 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:050544</t>
+          <t>BCIO:050547</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>minimum aggregate behavioural BCI engagement duration</t>
+          <t>minimum behavioural BCI engagement number</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>An aggregate behavioural BCI engagement duration statistic that is the lowest value from a collection of aggregate behavioural BCI engagement durations.</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>The minimum duration of all intervention sessions attended by participants.</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
+          <t>A behavioural BCI engagement number statistic that is the lowest value from a collection of behavioural BCI engagement numbers.</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>The minimum number of intervention sessions attended by participants.</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -923,29 +890,29 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:050539</t>
+          <t>BCIO:050537</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>median aggregate behavioural BCI engagement duration</t>
+          <t>mean behavioural BCI engagement number</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>An aggregate behavioural BCI engagement duration statistic that is the central value of a collection of aggregate behavioural BCI engagement durations.</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>The median duration of all intervention sessions attended by participants.</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
+          <t>A behavioural BCI engagement number statistic that is the average value calculated from a collection of behavioural BCI engagement numbers.</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>The mean number of intervention sessions attended by participants.</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -954,29 +921,24 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:050534</t>
+          <t>BCIO:050523</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>mean aggregate behavioural BCI engagement duration</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>behavioural BCI engagement duration statistic</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>An aggregate behavioural BCI engagement duration statistic that is the average value calculated from a collection of aggregate behavioural BCI engagement durations.</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>The mean duration of all intervention sessions attended by participants.</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
+          <t>A data item that is about a collection of behavioural BCI engagement durations.</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -985,29 +947,29 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:050529</t>
+          <t>BCIO:050530</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>maximum aggregate behavioural BCI engagement duration</t>
+          <t>maximum behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>An aggregate behavioural BCI engagement duration statistic that is the highest value from a collection of aggregate behavioural BCI engagement durations.</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>The maximum duration of all intervention sessions attended by participants.</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
+          <t>A behavioural BCI engagement duration statistic that is the highest value from a collection of behavioural BCI engagement durations.</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>The maximum duration of intervention sessions attended by participants.</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -1016,24 +978,29 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:050523</t>
+          <t>BCIO:050540</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>behavioural BCI engagement duration statistic</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>median behavioural BCI engagement duration</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>A data item that is about a collection of behavioural BCI engagement durations.</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
+          <t>A behavioural BCI engagement duration statistic that is the central value of a collection of behavioural BCI engagement durations.</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>The median duration of intervention sessions attended by participants.</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -1042,29 +1009,29 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:050540</t>
+          <t>BCIO:050545</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>median behavioural BCI engagement duration</t>
+          <t>minimum behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement duration statistic that is the central value of a collection of behavioural BCI engagement durations.</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>The median duration of intervention sessions attended by participants.</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
+          <t>A behavioural BCI engagement duration statistic that is the lowest value from a collection of behavioural BCI engagement durations.</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>The minimum duration of intervention sessions attended by participants.</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -1090,12 +1057,12 @@
           <t>A behavioural BCI engagement duration statistic that is the average value calculated from a collection of behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>The mean duration of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -1104,29 +1071,24 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:050530</t>
+          <t>BCIO:050524</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>maximum behavioural BCI engagement duration</t>
-        </is>
-      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>behavioural BCI engagement frequency statistic</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement duration statistic that is the highest value from a collection of behavioural BCI engagement durations.</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>The maximum duration of intervention sessions attended by participants.</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
+          <t>A data item that is about a collection of behavioural BCI engagement frequencies.</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -1135,29 +1097,29 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:050545</t>
+          <t>BCIO:050546</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>minimum behavioural BCI engagement duration</t>
+          <t>minimum behavioural BCI engagement frequency</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement duration statistic that is the lowest value from a collection of behavioural BCI engagement durations.</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>The minimum duration of intervention sessions attended by participants.</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
+          <t>A behavioural BCI engagement frequency statistic that is the lowest value from a collection of behavioural BCI engagement frequencies.</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>The minimum frequency of intervention sessions attended by participants.</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -1166,24 +1128,29 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:050525</t>
+          <t>BCIO:050541</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>behavioural BCI engagement number statistic</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>median behavioural BCI engagement frequency</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>A data item that is about a collection of behavioural BCI engagement contact event numbers.</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
+          <t>A behavioural BCI engagement frequency statistic that is the central value of a collection of behavioural BCI engagement frequencies.</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>The median frequency of intervention sessions attended by participants.</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -1192,29 +1159,29 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:050542</t>
+          <t>BCIO:050536</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>median behavioural BCI engagement number</t>
+          <t>mean behavioural BCI engagement frequency</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement number statistic that is the central value of a collection of behavioural BCI engagement numbers.</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>The median number of intervention sessions attended by participants.</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
+          <t>A behavioural BCI engagement frequency statistic that is the average value calculated from a collection of behavioural BCI engagement frequencies.</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>The mean frequency of intervention sessions attended by participants.</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -1223,29 +1190,29 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:050532</t>
+          <t>BCIO:050531</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>maximum behavioural BCI engagement number</t>
+          <t>maximum behavioural BCI engagement frequency</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement number statistic that is the highest value from a collection of behavioural BCI engagement numbers.</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>The maximum number of intervention sessions attended by participants.</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
+          <t>A behavioural BCI engagement frequency statistic that is the highest value from a collection of behavioural BCI engagement frequencies.</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>The maximum frequency of intervention sessions attended by participants.</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -1254,29 +1221,24 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:050537</t>
+          <t>BCIO:050521</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>mean behavioural BCI engagement number</t>
-        </is>
-      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>BCI engagement period statistic</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement number statistic that is the average value calculated from a collection of behavioural BCI engagement numbers.</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>The mean number of intervention sessions attended by participants.</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
+          <t>A data item that is about a collection of BCI engagement periods.</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -1285,29 +1247,29 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:050547</t>
+          <t>BCIO:050538</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>minimum behavioural BCI engagement number</t>
+          <t>median BCI engagement period</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement number statistic that is the lowest value from a collection of behavioural BCI engagement numbers.</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>The minimum number of intervention sessions attended by participants.</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
+          <t>A BCI engagement period statistic that is the central value of a collection of BCI engagement periods.</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>The median period of intervention that participants engaged with.</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -1316,40 +1278,60 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:001000</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_001000</t>
-        </is>
-      </c>
+          <t>BCIO:050533</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>mean BCI engagement period</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>A BCI engagement period statistic that is the average value calculated from a collection of BCI engagement periods.</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>The mean period of intervention  that participants engaged with.</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MFOEM:000218</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>enjoyment</t>
-        </is>
-      </c>
+          <t>BCIO:050543</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>minimum BCI engagement period</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>A positive emotion that is about an ongoing experience and reflects that the experience is being appraised as pleasurable</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
+          <t>A BCI engagement period statistic that is the lowest value from a collection of BCI engagement periods.</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>The minimum period of intervention that participants engaged with.</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -1358,24 +1340,29 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MFOEM:000001</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
+          <t>BCIO:050528</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>maximum BCI engagement period</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>An affective process that is a synchronized aggregate of constituent mental processes, including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
+          <t>A BCI engagement period statistic that is the highest value from a collection of BCI engagement periods.</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>The maximum period of intervention that participants engaged with.</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -1384,13 +1371,13 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MFOEM:000026</t>
+          <t>BCIO:013020</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>behavioural BCI engagement frequency</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -1398,20 +1385,37 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.</t>
+          <t>A data item that is about the number of times behavioural BCI engagement occurs within a unit of time.</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hourly, daily, weekly or monthly encounters. </t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Describes the frequency of BCI engagement in a BCI (e.g., participants had weekly contact), or the frequency of engagement in part of a BCI (e.g., participants received face-to-face contact once a month). 
+The class “BCI engagement frequency” can be used to capture the frequency of different types of engagement, such as the frequency of engaging with social media or printed material. 
+Depending on how “BCI engagement frequency” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants joined at least 1 session every week), (2) maximum (e.g., only 10% of participants attended 5 sessions every week), (3) mean (e.g., participants joined 4 sessions per week on average) or (4) median (e.g., the median number of sessions participants attended was 4 per week). </t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Engagement</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MFOEM:000225</t>
+          <t>BCIO:013015</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>mistrust</t>
+          <t>number of behavioural BCI engagements</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -1419,10 +1423,21 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>A negative emotion involving feelings of suspicion or doubt regarding the honesty, fairness, or abilities of an entity (e.g., person, object, or situation).</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
+          <t>A data item that is about the number of times behavioural BCI engagement occurs.</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Number of: sessions attended, worksheets initiated, log ins, online posts, online responses. The amount of content viewed or the number of non-consecutive days an intervention was engaged with (e.g. the app was used on 20 days out of a possible 60 days).</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Describes the total number of engagement events in a BCI (e.g., participants received 10 sessions face-to-face or by phone), or the number of engagement events related to part of a BCI (e.g., 10% of people participated in 6 face-to-face sessions and 4 phone sessions). 
+Depending on how “number of BCI engagements” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants joined at least 1 session), (2) maximum (e.g., only 10% of participants attended 5 sessions), (3) mean (e.g., participants joined 4 sessions on average) or (4) median (e.g., the median number of sessions participants attended was 4). </t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -1431,39 +1446,29 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MFOEM:000033</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>interest</t>
-        </is>
-      </c>
+          <t>BFO:0000008</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000008</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Interest is a positive emotion which motivates learning, exploration and curiosity. Feelings of interest are associated with the novelty and complexity of stimuli</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MFOEM:000169</t>
+          <t>BFO:0000038</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>satisfaction</t>
+          <t>temporal interval</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -1471,10 +1476,10 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>An emotion that is experienced when one's wishes, expectations or needs are fulfilled.</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
+          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -1483,45 +1488,82 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BFO:0000008</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000008</t>
-        </is>
-      </c>
+          <t>BCIO:013025</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>behavioural BCI engagement duration</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>A temporal interval between the start and end of a behavioural BCI engagement.</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>A 30-minute session, 1 hour spent 'logged in'</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>A unit of time that describes the length of an engagement event.</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>The class “BCI engagement duration” can be used multiple times to capture the frequency of different types of engagements, such as the frequency of engaging with social media or printed material. 
+Depending on how “BCI engagement duration” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants talked to the therapist for at least 10 minutes in each session, (2) maximum (e.g., participants talked to the therapist for up to 1 hour in each session, (3) mean (e.g., participants talked with the therapist for 45 minutes on average in each session) or (4) median (e.g., the median length of calls between participants and therapists was 42 minutes in each session).</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:050549</t>
+          <t>BCIO:013030</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>temporal reference point associated with behavioural BCI engagement</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>aggregate behavioural BCI engagement duration</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>A time point against which behavioural BCI engagement is referenced.</t>
+          <t>A temporal interval that is the sum of the duration of behavioural BCI engagements for a BCI.</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>90 minutes total app usage, 12 hours of counselling sessions</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>A unit of time that describes the summed duration of all BCI engagement events.</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t xml:space="preserve">First engagement with an app (e.g., 2 weeks after app launch) </t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
+          <t xml:space="preserve">Describes the total duration of engagement in a BCI (e.g., all face-to-face sessions AND all telephone contacts), or the total duration of engagement in part of a BCI (e.g., all face-to-face sessions only). (A unit of time that describes the summed duration of all BCI engagement events.) 
+Depending on how “aggregate BCI engagement duration” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants talked to the therapist for at least 50 minutes in total across the sessions, (2) maximum (e.g., participants talked to the therapist for up to 4.5 hours in total across the sessions, (3) mean (e.g., participants talked with the therapist, on average, for 3 hours in total across the sessions) or (4) median (e.g., the median length of time participants talked with therapists in all their session was 3 hours). </t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -1530,24 +1572,39 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BFO:0000038</t>
+          <t>BCIO:013035</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>temporal interval</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>BCI engagement period</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
+          <t>A temporal interval between the start of the first behavioural BCI engagement and the end of the last behavioural BCI engagement.</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The video content was accessed for 6 weeks, the classes were attended for 12 months. </t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The total period of time between the first and last occasion of engagement with the intervention content. </t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Depending on how “BCI engagement period” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants attended the classes for at least 2 weeks, (2) maximum (e.g., participants attended the classes for up to 6 weeks, (3) mean (e.g., participants attended classes for 4 weeks on average) or (4) median (e.g., the median length participants attended classes was 4 weeks).</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -1556,165 +1613,118 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:013030</t>
+          <t>BCIO:050549</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>aggregate behavioural BCI engagement duration</t>
-        </is>
-      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>temporal reference point associated with behavioural BCI engagement</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>A temporal interval that is the sum of the duration of behavioural BCI engagements for a BCI.</t>
+          <t>A time point against which behavioural BCI engagement is referenced.</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>A unit of time that describes the summed duration of all BCI engagement events.</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>90 minutes total app usage, 12 hours of counselling sessions</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t xml:space="preserve">First engagement with an app (e.g., 2 weeks after app launch) </t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Describes the total duration of engagement in a BCI (e.g., all face-to-face sessions AND all telephone contacts), or the total duration of engagement in part of a BCI (e.g., all face-to-face sessions only). (A unit of time that describes the summed duration of all BCI engagement events.) 
-Depending on how “aggregate BCI engagement duration” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants talked to the therapist for at least 50 minutes in total across the sessions, (2) maximum (e.g., participants talked to the therapist for up to 4.5 hours in total across the sessions, (3) mean (e.g., participants talked with the therapist, on average, for 3 hours in total across the sessions) or (4) median (e.g., the median length of time participants talked with therapists in all their session was 3 hours). </t>
+          <t>Engagement</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:013025</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
+          <t>BCIO:001000</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_001000</t>
+        </is>
+      </c>
       <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>behavioural BCI engagement duration</t>
-        </is>
-      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>A temporal interval between the start and end of a behavioural BCI engagement.</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>A unit of time that describes the length of an engagement event.</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>A 30-minute session, 1 hour spent 'logged in'</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>The class “BCI engagement duration” can be used multiple times to capture the frequency of different types of engagements, such as the frequency of engaging with social media or printed material. 
-Depending on how “BCI engagement duration” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants talked to the therapist for at least 10 minutes in each session, (2) maximum (e.g., participants talked to the therapist for up to 1 hour in each session, (3) mean (e.g., participants talked with the therapist for 45 minutes on average in each session) or (4) median (e.g., the median length of calls between participants and therapists was 42 minutes in each session).</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:013035</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
+          <t>BCIO:040000</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_040000</t>
+        </is>
+      </c>
       <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>BCI engagement period</t>
-        </is>
-      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>A temporal interval between the start of the first behavioural BCI engagement and the end of the last behavioural BCI engagement.</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The total period of time between the first and last occasion of engagement with the intervention content. </t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The video content was accessed for 6 weeks, the classes were attended for 12 months. </t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>Depending on how “BCI engagement period” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants attended the classes for at least 2 weeks, (2) maximum (e.g., participants attended the classes for up to 6 weeks, (3) mean (e.g., participants attended classes for 4 weeks on average) or (4) median (e.g., the median length participants attended classes was 4 weeks).</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MF:0000020</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/MF_0000020</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
+          <t>BCIO:050916</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>participant engagement with intervention</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>An individual human activity of an intervention participant within one or more parts of the intervention.</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>The extend to which someone interacts with an intervention, including their cognitive, emotional and behavioural response (e.g., attending intervention session) to the intervention itself.</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MF:0000006</t>
+          <t>BCIO:013000</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>judging</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>participant engagement with behaviour change intervention</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>A mental process during which information is evaluated, the outcome of which is a belief or opinion.</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
+          <t>Participant engagement with intervention, where the intervention focuses on changing behaviour.</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -1723,29 +1733,40 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MF:0000008</t>
+          <t>BCIO:013060</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>cognitive process</t>
-        </is>
-      </c>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>emotional BCI engagement</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>A mental process that creates, modifies or has as participant some cognitive representation.</t>
+          <t>Participant engagement with behaviour change intervention in which the engagement activity is an emotion process.</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Understanding, or thinking about something or forming or changing beliefs about something. </t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
+          <t>Enjoying or liking the intervention</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Engagement through having or expressing feelings or emotions in relation to an intervention. </t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>“Emotional BCI engagement” classes in the ontology are about how engagement is recorded or reported relevant to an individual’s response to the intervention content. Some interventions intend to elicit emotional responses as mechanisms of actions or outcomes, but these are not captured by the current class. 
+“Emotion process” is defined as “A mental process that is a synchronized aggregate of constituent mental processes including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.”</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -1754,24 +1775,34 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:006110</t>
+          <t>BCIO:013070</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>comprehension</t>
-        </is>
-      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>emotional BCI engagement through satisfaction</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation.</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
+          <t>Emotional BCI engagement that involves satisfaction.</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Experiencing satisfaction by fulfilling needs, expectations or wishes. </t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>“Satisfaction” is defined as “An emotion that is experienced when one's wishes, expectations or needs are fulfilled.”</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -1780,29 +1811,29 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MF:0000018</t>
+          <t>BCIO:050527</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>attending</t>
-        </is>
-      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>emotional BCI engagement through mistrust</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>A mental process whereby relevant aspects of one's mental experience are focused on specific targets.</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Focusing on particular internal or external stimuli.</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
+          <t>Emotional BCI engagement that involves mistrust.</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>“Mistrust” is defined as “A negative emotion involving feelings of suspicion or doubt regarding the honesty, fairness, or abilities of an entity (e.g., person, object, or situation).”</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -1811,61 +1842,103 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:015000</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_015000</t>
-        </is>
-      </c>
+          <t>BCIO:013075</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>emotional BCI engagement through interest</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Emotional BCI engagement that involves interest.</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Experiencing interest in the intervention by creating a desire to learn more.</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>In the Emotion Ontology, “interest” is defined as “a positive emotion which motivates learning, exploration and curiosity. Feelings of interest are associated with the novelty and complexity of stimuli.” 
+“Emotional BCI engagement through interest” can have a cognitive component or be associated with “cognitive BCI engagement through attending” or “cognitive engagement through evaluation”, as emotion and cognitive processes are often related. For instance, participants rating the “informativeness” of an intervention would qualify as a “cognitive engagement through evaluation”. 
+The opposite of interest is boredom.</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:040000</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_040000</t>
-        </is>
-      </c>
+          <t>BCIO:050526</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>emotional BCI engagement through fear</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Emotional BCI engagement that involves fear.</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>“Fear” is defined as “A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.”</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:050916</t>
+          <t>BCIO:013065</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>participant engagement with intervention</t>
-        </is>
-      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>emotional BCI engagement through enjoyment</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>An individual human activity of an intervention participant within one or more parts of the intervention.</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>The extend to which someone interacts with an intervention, including their cognitive, emotional and behavioural response (e.g., attending intervention session) to the intervention itself.</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
+          <t>Emotional BCI engagement that involves enjoyment.</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Experiencing pleasure through interacting/using the intervention (e.g., gamification).</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>“Enjoyment” is defined as “A positive emotion that is about an ongoing experience and reflects that the experience is being appraised as pleasurable.”</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -1874,24 +1947,34 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:013000</t>
+          <t>BCIO:013040</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>participant engagement with behaviour change intervention</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>cognitive BCI engagement</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Participant engagement with intervention, where the intervention focuses on changing behaviour.</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
+          <t>Participant engagement with behaviour change intervention in which the engagement activity is a cognitive process.</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paying attention or understanding an intervention’s content, thinking, forming, or changing beliefs about intervention </t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Describes engagement which can be demonstrated through reviewing, understanding, learning or recalling the intervention content. Cognitive processes entail the act of directing the mind to see, listen or understand.</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -1900,43 +1983,43 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:013040</t>
+          <t>BCIO:013050</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>cognitive BCI engagement</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>cognitive BCI engagement through comprehension</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Participant engagement with behaviour change intervention in which the engagement activity is a cognitive process.</t>
+          <t>A cognitive BCI engagement that involves comprehension.</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Paying attention or understanding an intervention’s content, thinking, forming, or changing beliefs about intervention </t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t>Comprehension of meaning, requirements or importance. Formal testing, providing feedback</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>“Comprehension” is defined as “A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation.”</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Describes engagement which can be demonstrated through reviewing, understanding, learning or recalling the intervention content. Cognitive processes entail the act of directing the mind to see, listen or understand.</t>
+          <t>Engagement</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:013055</t>
+          <t>BCIO:013045</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -1945,34 +2028,39 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>cognitive BCI engagement through judging</t>
+          <t>cognitive BCI engagement through attention</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>A cognitive BCI engagement that involves a judging process.</t>
+          <t>A cognitive BCI engagement that involves attending.</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Evaluations of usefulness, relevance usability or effectiveness.</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t>Paying attention to certain images or information within the intervention</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Paying attention to an intervention’s content</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>“Attending” is defined as “The process whereby relevant aspects of our mental experience are focused on specific targets.”</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>“Judging” is defined as “A &lt;mental process&gt; during which information is evaluated, the outcome of which is a belief or opinion.”</t>
+          <t>Engagement</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:013045</t>
+          <t>BCIO:013055</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1981,323 +2069,235 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>cognitive BCI engagement through attention</t>
+          <t>cognitive BCI engagement through judging</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>A cognitive BCI engagement that involves attending.</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Paying attention to an intervention’s content</t>
+          <t>A cognitive BCI engagement that involves a judging process.</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Evaluations of usefulness, relevance usability or effectiveness.</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Paying attention to certain images or information within the intervention</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t>“Judging” is defined as “A &lt;mental process&gt; during which information is evaluated, the outcome of which is a belief or opinion.”</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>“Attending” is defined as “The process whereby relevant aspects of our mental experience are focused on specific targets.”</t>
+          <t>Engagement</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:013050</t>
+          <t>BCIO:013010</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>cognitive BCI engagement through comprehension</t>
-        </is>
-      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>behavioural BCI engagement</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>A cognitive BCI engagement that involves comprehension.</t>
+          <t>Participant engagement with behaviour change intervention in which the engagement activity is a behaviour.</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Eye movements, body movements, meditation, attending an intervention session, using nicotine patches in a smoking cessation intervention, or online activity: attending, logging in, posting on a discussion board, reading content, mouse clicks, viewing, using tools, journaling</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Any behaviour performed to engage with an intervention and its content.</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Comprehension of meaning, requirements or importance. Formal testing, providing feedback</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t>This is distinguished from engagement that involves thought processes.</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>“Comprehension” is defined as “A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation.”</t>
+          <t>Engagement</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:013010</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr"/>
+          <t>BCIO:015000</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_015000</t>
+        </is>
+      </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>behavioural BCI engagement</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Participant engagement with behaviour change intervention in which the engagement activity is a behaviour.</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Any behaviour performed to engage with an intervention and its content.</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Eye movements, body movements, meditation, attending an intervention session, using nicotine patches in a smoking cessation intervention, or online activity: attending, logging in, posting on a discussion board, reading content, mouse clicks, viewing, using tools, journaling</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>This is distinguished from engagement that involves thought processes.</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:013060</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr"/>
+          <t>MFOEM:000001</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>emotional BCI engagement</t>
-        </is>
-      </c>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Participant engagement with behaviour change intervention in which the engagement activity is an emotion process.</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Engagement through having or expressing feelings or emotions in relation to an intervention. </t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Enjoying or liking the intervention</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t>An affective process that is a synchronized aggregate of constituent mental processes, including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>“Emotional BCI engagement” classes in the ontology are about how engagement is recorded or reported relevant to an individual’s response to the intervention content. Some interventions intend to elicit emotional responses as mechanisms of actions or outcomes, but these are not captured by the current class. 
-“Emotion process” is defined as “A mental process that is a synchronized aggregate of constituent mental processes including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.”</t>
+          <t>Engagement</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:013070</t>
+          <t>MFOEM:000033</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>interest</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>emotional BCI engagement through satisfaction</t>
-        </is>
-      </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Emotional BCI engagement that involves satisfaction.</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Experiencing satisfaction by fulfilling needs, expectations or wishes. </t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t>Interest is a positive emotion which motivates learning, exploration and curiosity. Feelings of interest are associated with the novelty and complexity of stimuli</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>“Satisfaction” is defined as “An emotion that is experienced when one's wishes, expectations or needs are fulfilled.”</t>
+          <t>Engagement</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:013075</t>
+          <t>MFOEM:000169</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>satisfaction</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>emotional BCI engagement through interest</t>
-        </is>
-      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Emotional BCI engagement that involves interest.</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Experiencing interest in the intervention by creating a desire to learn more.</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t>An emotion that is experienced when one's wishes, expectations or needs are fulfilled.</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>In the Emotion Ontology, “interest” is defined as “a positive emotion which motivates learning, exploration and curiosity. Feelings of interest are associated with the novelty and complexity of stimuli.” 
-“Emotional BCI engagement through interest” can have a cognitive component or be associated with “cognitive BCI engagement through attending” or “cognitive engagement through evaluation”, as emotion and cognitive processes are often related. For instance, participants rating the “informativeness” of an intervention would qualify as a “cognitive engagement through evaluation”. 
-The opposite of interest is boredom.</t>
+          <t>Engagement</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:050526</t>
+          <t>MFOEM:000225</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>mistrust</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>emotional BCI engagement through fear</t>
-        </is>
-      </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Emotional BCI engagement that involves fear.</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t>A negative emotion involving feelings of suspicion or doubt regarding the honesty, fairness, or abilities of an entity (e.g., person, object, or situation).</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>“Fear” is defined as “A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.”</t>
+          <t>Engagement</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:050527</t>
+          <t>MFOEM:000026</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>emotional BCI engagement through mistrust</t>
-        </is>
-      </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Emotional BCI engagement that involves mistrust.</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>“Mistrust” is defined as “A negative emotion involving feelings of suspicion or doubt regarding the honesty, fairness, or abilities of an entity (e.g., person, object, or situation).”</t>
+          <t>A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:013065</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr"/>
+          <t>MFOEM:000218</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>enjoyment</t>
+        </is>
+      </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>emotional BCI engagement through enjoyment</t>
-        </is>
-      </c>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Emotional BCI engagement that involves enjoyment.</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Experiencing pleasure through interacting/using the intervention (e.g., gamification).</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t>A positive emotion that is about an ongoing experience and reflects that the experience is being appraised as pleasurable</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>“Enjoyment” is defined as “A positive emotion that is about an ongoing experience and reflects that the experience is being appraised as pleasurable.”</t>
+          <t>Engagement</t>
         </is>
       </c>
     </row>

--- a/Engagement/BCIO-engagement-hierarchy.xlsx
+++ b/Engagement/BCIO-engagement-hierarchy.xlsx
@@ -616,7 +616,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>temporal interval</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -2229,7 +2229,7 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>A process in which at least one bodily component of an organsim participates.</t>
+          <t>A process in which at least one bodily component of an organism participates.</t>
         </is>
       </c>
     </row>
@@ -2454,7 +2454,7 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Valence is a process profile of an emotion, mood, or affective bodily feeling (such as pleasure and pain). Valence can be positive or negative, with different strengths in both directions. For example, pleasure is positively valenced while pain is negatively valenced.  </t>
+          <t>A &lt;bodily process&gt; that occurs in the brain, and that can of itself be conscious, or can give rise to a process that can of itself be conscious or can give rise to behaviour.</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t>A mental process that has positive or negative valence.</t>
+          <t xml:space="preserve">An affective process is any process that has positive or negative valence. </t>
         </is>
       </c>
     </row>
@@ -2734,7 +2734,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>MFOEM:000019</t>
+          <t>MFOEM:000053</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
@@ -2745,21 +2745,21 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>disgust</t>
+          <t>guilt</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>A negative emotion that is characterised by a need to get rid of, or distance oneself from, a stimulus that is appraised as repulsing.</t>
+          <t>A negative self-evaluative emotion that occurs when a person brings about a negative outcome by acts of commission or omission that violate internal or external moral standards.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MFOEM:000021</t>
+          <t>MFOEM:000019</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
@@ -2768,23 +2768,23 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>animal-nature disgust</t>
-        </is>
-      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>disgust</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Disgust elicited by poor hygiene, inappropriate sex, gore or violations of bodily boundaries, and death or the odor of decay. [Source: OCEAS]</t>
+          <t>A negative emotion that is characterised by a need to get rid of, or distance oneself from, a stimulus that is appraised as repulsing.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MFOEM:000022</t>
+          <t>MFOEM:000021</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
@@ -2796,20 +2796,20 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>interpersonal disgust</t>
+          <t>animal-nature disgust</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Disgust elicited by contact with others, especially contact with strangers or other individuals or groups we are averse to. [Source: OCEAS]</t>
+          <t>Disgust elicited by poor hygiene, inappropriate sex, gore or violations of bodily boundaries, and death or the odor of decay. [Source: OCEAS]</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MFOEM:000020</t>
+          <t>MFOEM:000022</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -2821,20 +2821,20 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>core disgust</t>
+          <t>interpersonal disgust</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Disgust elicited by "contaminated" food substances: rotten food, culturally variable "bad" food, certain animals associated with rotten food (maggots, rats), and every body product except tears. [Source: OCEAS]</t>
+          <t>Disgust elicited by contact with others, especially contact with strangers or other individuals or groups we are averse to. [Source: OCEAS]</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>MFOEM:000023</t>
+          <t>MFOEM:000020</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
@@ -2846,20 +2846,20 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>moral disgust</t>
+          <t>core disgust</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Disgust elicited by some kinds of especially egregious moral violations. [Source: OCEAS]</t>
+          <t>Disgust elicited by "contaminated" food substances: rotten food, culturally variable "bad" food, certain animals associated with rotten food (maggots, rats), and every body product except tears. [Source: OCEAS]</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MFOEM:000028</t>
+          <t>MFOEM:000023</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
@@ -2868,23 +2868,23 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>anxiety</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>moral disgust</t>
+        </is>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>A negative emotion that is aversive and provoked by the prospect of distal threat.</t>
+          <t>Disgust elicited by some kinds of especially egregious moral violations. [Source: OCEAS]</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>MFOEM:000042</t>
+          <t>MFOEM:000028</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
@@ -2895,21 +2895,21 @@
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>anxiety</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>A positive emotion which is experienced in reaction to a positive experience or event. [Source: OCEAS]</t>
+          <t>A negative emotion that is aversive and provoked by the prospect of distal threat.</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>MFOEM:000218</t>
+          <t>MFOEM:000042</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
@@ -2918,28 +2918,23 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>enjoyment</t>
-        </is>
-      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>happiness</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
-          <t>A positive emotion that is about an ongoing experience and reflects that the experience is being appraised as pleasurable</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t>A positive emotion which is experienced in reaction to a positive experience or event. [Source: OCEAS]</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>MFOEM:000032</t>
+          <t>MFOEM:000218</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -2948,23 +2943,28 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>surprise</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>enjoyment</t>
+        </is>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
-          <t>An emotion caused by encountering unexpected events.</t>
+          <t>A positive emotion that is about an ongoing experience and reflects that the experience is being appraised as pleasurable</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>Engagement</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>MFOEM:000209</t>
+          <t>MFOEM:000032</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
@@ -2973,23 +2973,23 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>positive surprise</t>
-        </is>
-      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>surprise</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Surprise with a positive valence</t>
+          <t>An emotion caused by encountering unexpected events.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>MFOEM:000210</t>
+          <t>MFOEM:000209</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
@@ -3001,20 +3001,20 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>negative surprise</t>
+          <t>positive surprise</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Surprise with a negative valence.</t>
+          <t>Surprise with a positive valence</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>MFOEM:000225</t>
+          <t>MFOEM:000210</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
@@ -3023,28 +3023,23 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>mistrust</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>negative surprise</t>
+        </is>
+      </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
-          <t>A negative emotion involving feelings of suspicion or doubt regarding the honesty, fairness, or abilities of an entity (e.g., person, object, or situation).</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t>Surprise with a negative valence.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>MFOEM:000033</t>
+          <t>MFOEM:000225</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
@@ -3055,14 +3050,14 @@
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
-          <t>interest</t>
+          <t>mistrust</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Interest is a positive emotion which motivates learning, exploration and curiosity. Feelings of interest are associated with the novelty and complexity of stimuli. [Source: OCEAS]</t>
+          <t>A negative emotion involving feelings of suspicion or doubt regarding the honesty, fairness, or abilities of an entity (e.g., person, object, or situation).</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -3074,7 +3069,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>MFOEM:000035</t>
+          <t>MFOEM:000033</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -3085,21 +3080,26 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>pleasure (emotion)</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>A positive emotion which is sought out and is associated with happiness and satisfaction.</t>
+          <t>Interest is a positive emotion which motivates learning, exploration and curiosity. Feelings of interest are associated with the novelty and complexity of stimuli. [Source: OCEAS]</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Engagement</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>MFOEM:000040</t>
+          <t>MFOEM:000035</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
@@ -3108,23 +3108,23 @@
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>sexual pleasure</t>
-        </is>
-      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>pleasure (emotion)</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Pleasure that is experienced as a result of sexual activities.</t>
+          <t>A positive emotion which is sought out and is associated with happiness and satisfaction.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>MFOEM:000026</t>
+          <t>MFOEM:000040</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
@@ -3133,23 +3133,23 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>fear</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>sexual pleasure</t>
+        </is>
+      </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
-          <t>A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.</t>
+          <t>Pleasure that is experienced as a result of sexual activities.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>MFOEM:000053</t>
+          <t>MFOEM:000026</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
@@ -3160,14 +3160,14 @@
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>guilt</t>
+          <t>fear</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
-          <t>A negative self-evaluative emotion that occurs when a person brings about a negative outcome by acts of commission or omission that violate internal or external moral standards.</t>
+          <t>A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.</t>
         </is>
       </c>
     </row>
@@ -3265,7 +3265,7 @@
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>subjective affective feeling</t>
+          <t>subjective emotional feeling</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
@@ -3273,7 +3273,7 @@
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
-          <t>An &lt;affective process&gt; that involves the experience of internal or external sensory stimuli.</t>
+          <t>The subjective emotional feeling is that (fiat) part of the emotion process by which the organism experiences its own emotion.</t>
         </is>
       </c>
     </row>
@@ -3407,7 +3407,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>MFOEM:000107</t>
+          <t>MFOEM:000205</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
@@ -3418,21 +3418,21 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>feeling at ease</t>
+          <t>feeling of hunger</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
-          <t>A subjective affective feeling of being at ease, comfortable, relaxed.</t>
+          <t>A subjective affective feeling that involves discomfort and is associated with a need to consume food.</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>MFOEM:000080</t>
+          <t>MFOEM:000107</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
@@ -3443,21 +3443,21 @@
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
-          <t>feeling tired</t>
+          <t>feeling at ease</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
-          <t>A subjective affective feeling of a need for sleep.</t>
+          <t>A subjective affective feeling of being at ease, comfortable, relaxed.</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>MFOEM:000112</t>
+          <t>MFOEM:000080</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
@@ -3466,23 +3466,23 @@
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>feeling exhausted</t>
-        </is>
-      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>feeling tired</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Feeling tired to an extremely strong degree.</t>
+          <t>A subjective affective feeling of a need for sleep.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>MFOEM:000205</t>
+          <t>MFOEM:000112</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
@@ -3491,16 +3491,16 @@
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>feeling of hunger</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>feeling exhausted</t>
+        </is>
+      </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
-          <t>A subjective affective feeling that involves discomfort and is associated with a need to consume food.</t>
+          <t>Feeling tired to an extremely strong degree.</t>
         </is>
       </c>
     </row>
@@ -3625,7 +3625,7 @@
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
-          <t>A mental process whereby relevant aspects of one's mental experience are focused on specific targets.</t>
+          <t>the process whereby relevant aspects of our mental experience are focused on specific targets</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
@@ -5228,7 +5228,7 @@
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>établissement de pharmacologie</t>
+          <t>pharmacy facility</t>
         </is>
       </c>
       <c r="I180" t="inlineStr"/>
@@ -5426,7 +5426,7 @@
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>human being</t>
         </is>
       </c>
       <c r="G188" t="inlineStr"/>
@@ -6055,7 +6055,7 @@
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
-          <t>A continuant that inheres in or is borne by other entities. Every instance of A requires some specific instance of B which must always be the same.</t>
+          <t>b is a specifically dependent continuant = Def. b is a continuant &amp; there is some independent continuant c which is not a spatial region and which is such that b s-depends_on c at every time t during the course of b’s existence. (axiom label in BFO2 Reference: [050-003])</t>
         </is>
       </c>
     </row>
@@ -6182,7 +6182,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>ENVO:01000452</t>
+          <t>BFO:0000034</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -6191,23 +6191,18 @@
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr">
         <is>
-          <t>environmental disposition</t>
+          <t>function</t>
         </is>
       </c>
       <c r="G219" t="inlineStr"/>
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>A disposition which is realised by an environmental system or system parts thereof.</t>
-        </is>
-      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>MF:0000032</t>
+          <t>ENVO:01000452</t>
         </is>
       </c>
       <c r="B220" t="inlineStr"/>
@@ -6216,7 +6211,7 @@
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr">
         <is>
-          <t>bodily disposition</t>
+          <t>environmental disposition</t>
         </is>
       </c>
       <c r="G220" t="inlineStr"/>
@@ -6225,39 +6220,39 @@
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
-          <t>A disposition that inheres in some extended organism.</t>
+          <t>A disposition which is realised by an environmental system or system parts thereof.</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ADDICTO:0001378</t>
+          <t>MF:0000032</t>
         </is>
       </c>
       <c r="B221" t="inlineStr"/>
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr">
-        <is>
-          <t>drug withdrawal syndrome</t>
-        </is>
-      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr"/>
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
-          <t>A bodily disposition to undergo pathological processes characterized by physiological or psychological dysfunction that exists in an organism because of homeostatic disruption resulting from the cessation or reduction of repeated drug exposure.</t>
+          <t>A &lt;disposition&gt; that inheres in some extended organism.</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>MF:0000033</t>
+          <t>ADDICTO:0001378</t>
         </is>
       </c>
       <c r="B222" t="inlineStr"/>
@@ -6267,7 +6262,7 @@
       <c r="F222" t="inlineStr"/>
       <c r="G222" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>drug withdrawal syndrome</t>
         </is>
       </c>
       <c r="H222" t="inlineStr"/>
@@ -6275,14 +6270,14 @@
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
-          <t>A &lt;bodily disposition&gt; that is realized in a mental process.</t>
+          <t>A bodily disposition to undergo pathological processes characterized by physiological or psychological dysfunction that exists in an organism because of homeostatic disruption resulting from the cessation or reduction of repeated drug exposure.</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>MF:0000041</t>
+          <t>MF:0000033</t>
         </is>
       </c>
       <c r="B223" t="inlineStr"/>
@@ -6290,24 +6285,24 @@
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
-          <t>A mental disposition to represent a proposition to be true.</t>
+          <t xml:space="preserve">A mental disposition is a bodily disposition that is realized in a mental process. </t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ADDICTO:0000349</t>
+          <t>MF:0000041</t>
         </is>
       </c>
       <c r="B224" t="inlineStr"/>
@@ -6318,21 +6313,21 @@
       <c r="G224" t="inlineStr"/>
       <c r="H224" t="inlineStr">
         <is>
-          <t>addiction</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
-          <t>A mental disposition towards repeated episodes of abnormally high levels of motivation to engage in a behaviour, acquired as a result of engaging in the behaviour, where the behaviour results in risk or occurrence of serious net harm.</t>
+          <t>A mental disposition to represent a proposition to be true.</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>MF:0000043</t>
+          <t>ADDICTO:0000349</t>
         </is>
       </c>
       <c r="B225" t="inlineStr"/>
@@ -6340,24 +6335,24 @@
       <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>personal capability</t>
-        </is>
-      </c>
-      <c r="H225" t="inlineStr"/>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>addiction</t>
+        </is>
+      </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
-          <t>A bodily disposition whose realization ordinarily brings benefits to an organism or group of organisms, where "ordinarily" means within a typical range or context.</t>
+          <t>A mental disposition towards repeated episodes of abnormally high levels of motivation to engage in a behaviour, acquired as a result of engaging in the behaviour, where the behaviour results in risk or occurrence of serious net harm.</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>MF:0000048</t>
+          <t>MF:0000043</t>
         </is>
       </c>
       <c r="B226" t="inlineStr"/>
@@ -6365,24 +6360,24 @@
       <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>mental capability</t>
-        </is>
-      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>personal capability</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
-          <t>A personal capability that includes mental processes in its realisation.</t>
+          <t>A bodily disposition whose realization ordinarily brings benefits to an organism or group of organisms, where "ordinarily" means within a typical range or context.</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>MF:0000050</t>
+          <t>MF:0000048</t>
         </is>
       </c>
       <c r="B227" t="inlineStr"/>
@@ -6391,23 +6386,23 @@
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
-      <c r="I227" t="inlineStr">
-        <is>
-          <t>linguistic capability</t>
-        </is>
-      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>mental capability</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
-          <t>A mental capability that is realised in processes of communication involving language or in expressions of language.</t>
+          <t>A personal capability that includes mental processes in its realisation.</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>MFOEM:000007</t>
+          <t>MF:0000050</t>
         </is>
       </c>
       <c r="B228" t="inlineStr"/>
@@ -6415,24 +6410,24 @@
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>emotional action tendency</t>
-        </is>
-      </c>
+      <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
-      <c r="I228" t="inlineStr"/>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>linguistic capability</t>
+        </is>
+      </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
-          <t>A bodily disposition to behaviour that inheres in an organism by virtue of the physical changes brought about by an emotion process.</t>
+          <t>A mental capability that is realised in processes of communication involving language or in expressions of language.</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>MF:0000203</t>
+          <t>MFOEM:000007</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
@@ -6442,7 +6437,7 @@
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="inlineStr">
         <is>
-          <t>personality trait</t>
+          <t>emotional action tendency</t>
         </is>
       </c>
       <c r="H229" t="inlineStr"/>
@@ -6450,14 +6445,14 @@
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
-          <t xml:space="preserve">A personality trait is an individual disposition or predisposition that forms part of an overall personality and is realized in repeated occurrences of a specific mental process type or behavioural profile. </t>
+          <t>A bodily disposition to behaviour that inheres in an organism by virtue of the physical changes brought about by an emotion process.</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>MFOEM:000204</t>
+          <t>MF:0000203</t>
         </is>
       </c>
       <c r="B230" t="inlineStr"/>
@@ -6465,24 +6460,24 @@
       <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>emotional personality trait</t>
-        </is>
-      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>personality trait</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
-          <t xml:space="preserve">An emotional personality trait is a personality trait, a part of an overall personality, which predisposes the individual to repeated occurrences of a characteristic emotional process. </t>
+          <t xml:space="preserve">A personality trait is an individual disposition or predisposition that forms part of an overall personality and is realized in repeated occurrences of a specific mental process type or behavioural profile. </t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>MF:0000202</t>
+          <t>MFOEM:000204</t>
         </is>
       </c>
       <c r="B231" t="inlineStr"/>
@@ -6490,39 +6485,44 @@
       <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr">
-        <is>
-          <t>personality</t>
-        </is>
-      </c>
-      <c r="H231" t="inlineStr"/>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>emotional personality trait</t>
+        </is>
+      </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
-          <t>A personality is a complex sum of dispositions and predispositions towards mental processes and behaviour. It inheres in a person.</t>
+          <t xml:space="preserve">An emotional personality trait is a personality trait, a part of an overall personality, which predisposes the individual to repeated occurrences of a characteristic emotional process. </t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>BFO:0000034</t>
+          <t>MF:0000202</t>
         </is>
       </c>
       <c r="B232" t="inlineStr"/>
       <c r="C232" t="inlineStr"/>
       <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>function</t>
-        </is>
-      </c>
-      <c r="G232" t="inlineStr"/>
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>personality</t>
+        </is>
+      </c>
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>A personality is a complex sum of dispositions and predispositions towards mental processes and behaviour. It inheres in a person.</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -7420,7 +7420,7 @@
       <c r="D269" t="inlineStr"/>
       <c r="E269" t="inlineStr">
         <is>
-          <t>spécification d’intervalle de dose</t>
+          <t>dose range specification</t>
         </is>
       </c>
       <c r="F269" t="inlineStr"/>
@@ -7857,7 +7857,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>BCIO:050529</t>
+          <t>BCIO:050534</t>
         </is>
       </c>
       <c r="B284" t="inlineStr"/>
@@ -7867,7 +7867,7 @@
       <c r="F284" t="inlineStr"/>
       <c r="G284" t="inlineStr">
         <is>
-          <t>maximum aggregate behavioural BCI engagement duration</t>
+          <t>mean aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="H284" t="inlineStr"/>
@@ -7875,12 +7875,12 @@
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
-          <t>An aggregate behavioural BCI engagement duration statistic that is the highest value from a collection of aggregate behavioural BCI engagement durations.</t>
+          <t>An aggregate behavioural BCI engagement duration statistic that is the average value calculated from a collection of aggregate behavioural BCI engagement durations.</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>The maximum duration of all intervention sessions attended by participants.</t>
+          <t>The mean duration of all intervention sessions attended by participants.</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
@@ -7892,7 +7892,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>BCIO:050534</t>
+          <t>BCIO:050529</t>
         </is>
       </c>
       <c r="B285" t="inlineStr"/>
@@ -7902,7 +7902,7 @@
       <c r="F285" t="inlineStr"/>
       <c r="G285" t="inlineStr">
         <is>
-          <t>mean aggregate behavioural BCI engagement duration</t>
+          <t>maximum aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="H285" t="inlineStr"/>
@@ -7910,12 +7910,12 @@
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
-          <t>An aggregate behavioural BCI engagement duration statistic that is the average value calculated from a collection of aggregate behavioural BCI engagement durations.</t>
+          <t>An aggregate behavioural BCI engagement duration statistic that is the highest value from a collection of aggregate behavioural BCI engagement durations.</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>The mean duration of all intervention sessions attended by participants.</t>
+          <t>The maximum duration of all intervention sessions attended by participants.</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
